--- a/TIG Project Updated Analysis 06062025/Input/Nick Data/TIG utilization report July 2025.xlsx
+++ b/TIG Project Updated Analysis 06062025/Input/Nick Data/TIG utilization report July 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasgiraldo/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwy-my.sharepoint.com/personal/mhossa11_uwyo_edu/Documents/Projects/Business Manager Jami Work Requests/TIG Project Updated Analysis 06062025/Input/Nick Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC50337F-0766-0442-9A10-6C3A18D77C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AC50337F-0766-0442-9A10-6C3A18D77C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{027AFF0E-9C17-406D-B6E9-B4504C265841}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="1980" windowWidth="26040" windowHeight="14940" xr2:uid="{2AC21E09-EAE5-604F-8BE9-8F7D983C22F6}"/>
+    <workbookView xWindow="28680" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{2AC21E09-EAE5-604F-8BE9-8F7D983C22F6}"/>
   </bookViews>
   <sheets>
     <sheet name="TIG Raw Data" sheetId="1" r:id="rId1"/>
@@ -1163,19 +1163,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B804AC-726D-AB43-A8E9-F264C5F693CC}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1400,7 +1401,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -2591,7 +2592,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>192</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>192</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -2839,7 +2840,7 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>72</v>
       </c>

--- a/TIG Project Updated Analysis 06062025/Input/Nick Data/TIG utilization report July 2025.xlsx
+++ b/TIG Project Updated Analysis 06062025/Input/Nick Data/TIG utilization report July 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwy-my.sharepoint.com/personal/mhossa11_uwyo_edu/Documents/Projects/Business Manager Jami Work Requests/TIG Project Updated Analysis 06062025/Input/Nick Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AC50337F-0766-0442-9A10-6C3A18D77C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{027AFF0E-9C17-406D-B6E9-B4504C265841}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{AC50337F-0766-0442-9A10-6C3A18D77C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA6CF1A8-AE87-47E9-88F8-F7AA262EF580}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{2AC21E09-EAE5-604F-8BE9-8F7D983C22F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="268">
   <si>
     <t>Date</t>
   </si>
@@ -281,9 +281,6 @@
     <t>CAREER: Defining the Role of Snow in Storing and Transmitting Liquid Water to Generate Streamflow</t>
   </si>
   <si>
-    <t>24-0006-P0001</t>
-  </si>
-  <si>
     <t>Yang</t>
   </si>
   <si>
@@ -837,6 +834,12 @@
   </si>
   <si>
     <t>25-0786-P0001</t>
+  </si>
+  <si>
+    <t>24-0006-P0002</t>
+  </si>
+  <si>
+    <t>24-0006-P0001 updated to 24-0006-P0002</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +865,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,9 +887,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,6 +906,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1163,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B804AC-726D-AB43-A8E9-F264C5F693CC}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1636,8 +1650,11 @@
       <c r="G13" t="s">
         <v>77</v>
       </c>
-      <c r="L13" t="s">
-        <v>81</v>
+      <c r="L13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M13" t="s">
+        <v>267</v>
       </c>
       <c r="N13" t="s">
         <v>41</v>
@@ -1651,10 +1668,10 @@
         <v>2023</v>
       </c>
       <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
         <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -1663,7 +1680,7 @@
         <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -1675,7 +1692,7 @@
         <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
         <v>22</v>
@@ -1689,10 +1706,10 @@
         <v>2023</v>
       </c>
       <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
         <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1701,7 +1718,7 @@
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -1716,7 +1733,7 @@
         <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N15" t="s">
         <v>41</v>
@@ -1724,16 +1741,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>2023</v>
       </c>
       <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
         <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -1742,13 +1759,13 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
         <v>93</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>94</v>
       </c>
       <c r="N16" t="s">
         <v>22</v>
@@ -1756,25 +1773,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>2023</v>
       </c>
       <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>75</v>
       </c>
       <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
       </c>
       <c r="H17" t="s">
         <v>20</v>
@@ -1786,7 +1803,7 @@
         <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s">
         <v>22</v>
@@ -1794,16 +1811,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>2023</v>
       </c>
       <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
         <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -1812,7 +1829,7 @@
         <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -1824,7 +1841,7 @@
         <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N18" t="s">
         <v>41</v>
@@ -1832,31 +1849,31 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19">
         <v>2023</v>
       </c>
       <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
         <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
         <v>107</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
         <v>108</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>109</v>
       </c>
       <c r="N19" t="s">
         <v>22</v>
@@ -1864,25 +1881,25 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>2023</v>
       </c>
       <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
         <v>110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
@@ -1894,7 +1911,7 @@
         <v>39</v>
       </c>
       <c r="L20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N20" t="s">
         <v>22</v>
@@ -1902,34 +1919,34 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>2023</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
         <v>115</v>
-      </c>
-      <c r="E21" t="s">
-        <v>116</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
       </c>
       <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
         <v>117</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" t="s">
-        <v>118</v>
       </c>
       <c r="N21" t="s">
         <v>41</v>
@@ -1937,7 +1954,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22">
         <v>2023</v>
@@ -1946,16 +1963,16 @@
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
         <v>121</v>
-      </c>
-      <c r="G22" t="s">
-        <v>122</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
@@ -1964,7 +1981,7 @@
         <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N22" t="s">
         <v>41</v>
@@ -1972,7 +1989,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23">
         <v>2023</v>
@@ -1981,16 +1998,16 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
         <v>125</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>126</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>127</v>
-      </c>
-      <c r="G23" t="s">
-        <v>128</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -2005,7 +2022,7 @@
         <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N23" t="s">
         <v>22</v>
@@ -2022,28 +2039,28 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
         <v>36</v>
       </c>
       <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
         <v>131</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
         <v>132</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>133</v>
       </c>
       <c r="N24" t="s">
         <v>22</v>
@@ -2057,31 +2074,31 @@
         <v>2024</v>
       </c>
       <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
         <v>134</v>
-      </c>
-      <c r="D25" t="s">
-        <v>135</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" t="s">
         <v>136</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
         <v>137</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" t="s">
-        <v>138</v>
       </c>
       <c r="N25" t="s">
         <v>22</v>
@@ -2098,7 +2115,7 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -2107,22 +2124,22 @@
         <v>44</v>
       </c>
       <c r="G26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
         <v>140</v>
       </c>
-      <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>141</v>
-      </c>
-      <c r="N26" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -2136,25 +2153,25 @@
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" t="s">
         <v>144</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
         <v>145</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s">
-        <v>146</v>
       </c>
       <c r="N27" t="s">
         <v>41</v>
@@ -2171,28 +2188,28 @@
         <v>62</v>
       </c>
       <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
         <v>147</v>
       </c>
-      <c r="E28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>148</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
         <v>149</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" t="s">
-        <v>150</v>
       </c>
       <c r="N28" t="s">
         <v>22</v>
@@ -2209,28 +2226,28 @@
         <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" t="s">
         <v>152</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
         <v>153</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>154</v>
       </c>
       <c r="N29" t="s">
         <v>22</v>
@@ -2247,25 +2264,25 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" t="s">
         <v>156</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
         <v>157</v>
-      </c>
-      <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" t="s">
-        <v>158</v>
       </c>
       <c r="N30" t="s">
         <v>22</v>
@@ -2279,31 +2296,31 @@
         <v>2024</v>
       </c>
       <c r="C31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" t="s">
         <v>159</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>160</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>161</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>162</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" t="s">
         <v>163</v>
-      </c>
-      <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -2314,10 +2331,10 @@
         <v>2024</v>
       </c>
       <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
         <v>91</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
@@ -2326,16 +2343,16 @@
         <v>48</v>
       </c>
       <c r="G32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
         <v>165</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>166</v>
       </c>
       <c r="N32" t="s">
         <v>22</v>
@@ -2343,34 +2360,34 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33">
         <v>2024</v>
       </c>
       <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
         <v>167</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
         <v>168</v>
       </c>
-      <c r="E33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>169</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
         <v>170</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" t="s">
-        <v>171</v>
       </c>
       <c r="N33" t="s">
         <v>22</v>
@@ -2378,7 +2395,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>2024</v>
@@ -2387,36 +2404,36 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" t="s">
         <v>172</v>
       </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>173</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
         <v>174</v>
       </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" t="s">
-        <v>175</v>
-      </c>
       <c r="N34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>2024</v>
@@ -2425,42 +2442,42 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" t="s">
         <v>177</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
         <v>178</v>
       </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s">
-        <v>179</v>
-      </c>
       <c r="N35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>2024</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -2469,19 +2486,19 @@
         <v>48</v>
       </c>
       <c r="G36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
         <v>181</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>182</v>
       </c>
       <c r="N36" t="s">
         <v>22</v>
@@ -2489,34 +2506,34 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37">
         <v>2024</v>
       </c>
       <c r="C37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" t="s">
         <v>183</v>
-      </c>
-      <c r="D37" t="s">
-        <v>184</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" t="s">
         <v>185</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
         <v>186</v>
-      </c>
-      <c r="I37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>187</v>
       </c>
       <c r="N37" t="s">
         <v>22</v>
@@ -2524,7 +2541,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38">
         <v>2024</v>
@@ -2533,25 +2550,25 @@
         <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" t="s">
         <v>189</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
         <v>190</v>
-      </c>
-      <c r="H38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" t="s">
-        <v>191</v>
       </c>
       <c r="N38" t="s">
         <v>22</v>
@@ -2559,7 +2576,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B39">
         <v>2024</v>
@@ -2568,63 +2585,63 @@
         <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" t="s">
         <v>194</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
         <v>195</v>
       </c>
-      <c r="H39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
         <v>196</v>
-      </c>
-      <c r="N39" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B40">
         <v>2024</v>
       </c>
       <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
         <v>198</v>
-      </c>
-      <c r="D40" t="s">
-        <v>199</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
+        <v>199</v>
+      </c>
+      <c r="G40" t="s">
         <v>200</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
         <v>201</v>
-      </c>
-      <c r="H40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s">
-        <v>202</v>
       </c>
       <c r="N40" t="s">
         <v>22</v>
@@ -2632,34 +2649,34 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B41">
         <v>2024</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G41" t="s">
         <v>204</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
         <v>205</v>
-      </c>
-      <c r="H41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" t="s">
-        <v>206</v>
       </c>
       <c r="N41" t="s">
         <v>22</v>
@@ -2667,7 +2684,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B42">
         <v>2024</v>
@@ -2676,89 +2693,89 @@
         <v>66</v>
       </c>
       <c r="D42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" t="s">
         <v>207</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>208</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>209</v>
       </c>
-      <c r="G42" t="s">
-        <v>210</v>
-      </c>
       <c r="H42" t="s">
         <v>20</v>
       </c>
       <c r="N42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43">
         <v>2024</v>
       </c>
       <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" t="s">
         <v>211</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>212</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>213</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>214</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
         <v>215</v>
       </c>
-      <c r="H43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" t="s">
-        <v>216</v>
-      </c>
       <c r="N43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44">
         <v>2024</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E44" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" t="s">
         <v>218</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
         <v>219</v>
       </c>
-      <c r="H44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" t="s">
-        <v>220</v>
-      </c>
       <c r="N44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -2772,7 +2789,7 @@
         <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -2781,22 +2798,22 @@
         <v>44</v>
       </c>
       <c r="G45" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
         <v>222</v>
       </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45" t="s">
-        <v>223</v>
-      </c>
       <c r="N45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -2810,7 +2827,7 @@
         <v>42</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>36</v>
@@ -2819,7 +2836,7 @@
         <v>44</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>20</v>
@@ -2832,7 +2849,7 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
@@ -2848,28 +2865,28 @@
         <v>2025</v>
       </c>
       <c r="C47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" t="s">
         <v>227</v>
       </c>
-      <c r="D47" t="s">
-        <v>228</v>
-      </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
         <v>44</v>
       </c>
       <c r="G47" t="s">
+        <v>228</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
         <v>229</v>
       </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>230</v>
-      </c>
       <c r="N47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -2883,28 +2900,28 @@
         <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E48" t="s">
         <v>17</v>
       </c>
       <c r="F48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" t="s">
         <v>232</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
         <v>233</v>
       </c>
-      <c r="H48" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="N48" t="s">
         <v>234</v>
-      </c>
-      <c r="N48" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -2915,31 +2932,31 @@
         <v>2025</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D49" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" t="s">
         <v>236</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>237</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>238</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
         <v>239</v>
       </c>
-      <c r="H49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" t="s">
-        <v>240</v>
-      </c>
       <c r="N49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -2950,28 +2967,28 @@
         <v>2025</v>
       </c>
       <c r="C50" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" t="s">
         <v>241</v>
-      </c>
-      <c r="D50" t="s">
-        <v>242</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" t="s">
         <v>243</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
         <v>244</v>
       </c>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" t="s">
-        <v>245</v>
-      </c>
       <c r="N50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -2982,31 +2999,31 @@
         <v>2025</v>
       </c>
       <c r="C51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" t="s">
         <v>246</v>
-      </c>
-      <c r="D51" t="s">
-        <v>247</v>
       </c>
       <c r="E51" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
+        <v>247</v>
+      </c>
+      <c r="G51" t="s">
         <v>248</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
         <v>249</v>
       </c>
-      <c r="H51" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" t="s">
-        <v>250</v>
-      </c>
       <c r="N51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -3017,25 +3034,25 @@
         <v>2025</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
         <v>17</v>
       </c>
       <c r="F52" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" t="s">
         <v>252</v>
       </c>
-      <c r="G52" t="s">
-        <v>253</v>
-      </c>
       <c r="J52" t="s">
         <v>20</v>
       </c>
       <c r="N52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -3046,34 +3063,34 @@
         <v>2025</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" t="s">
         <v>254</v>
       </c>
-      <c r="E53" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>255</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>256</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
+        <v>256</v>
+      </c>
+      <c r="J53" t="s">
+        <v>256</v>
+      </c>
+      <c r="L53" t="s">
         <v>257</v>
       </c>
-      <c r="I53" t="s">
-        <v>257</v>
-      </c>
-      <c r="J53" t="s">
-        <v>257</v>
-      </c>
-      <c r="L53" t="s">
-        <v>258</v>
-      </c>
       <c r="N53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -3084,34 +3101,34 @@
         <v>2025</v>
       </c>
       <c r="C54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" t="s">
         <v>259</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
         <v>260</v>
       </c>
-      <c r="E54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>255</v>
+      </c>
+      <c r="H54" t="s">
+        <v>256</v>
+      </c>
+      <c r="I54" t="s">
+        <v>256</v>
+      </c>
+      <c r="J54" t="s">
+        <v>256</v>
+      </c>
+      <c r="L54" t="s">
         <v>261</v>
       </c>
-      <c r="G54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H54" t="s">
-        <v>257</v>
-      </c>
-      <c r="I54" t="s">
-        <v>257</v>
-      </c>
-      <c r="J54" t="s">
-        <v>257</v>
-      </c>
-      <c r="L54" t="s">
-        <v>262</v>
-      </c>
       <c r="N54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
@@ -3122,28 +3139,28 @@
         <v>2025</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E55" t="s">
         <v>17</v>
       </c>
       <c r="F55" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
         <v>265</v>
       </c>
-      <c r="H55" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" t="s">
-        <v>266</v>
-      </c>
       <c r="N55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
